--- a/biology/Zoologie/Gibberula/Gibberula.xlsx
+++ b/biology/Zoologie/Gibberula/Gibberula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gibberula est un genre de mollusques gastéropodes marins de la famille des Cystiscidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 mai 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 mai 2023) :
 Gibberula ablita (Laseron, 1957)
 Gibberula abyssicola Locard, 1897
 Gibberula achenea (B. Roth &amp; Coan, 1971)
@@ -787,10 +801,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Gibberula a été créé en 1840 par le zoologiste britannique William Swainson (1789-1855), avec pour espèce type Gibberula zonata par monotypie[1],[2].
-Gibberula a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gibberula a été créé en 1840 par le zoologiste britannique William Swainson (1789-1855), avec pour espèce type Gibberula zonata par monotypie,.
+Gibberula a pour synonymes :
 Dentiginella Laseron, 1957
 Diliculum Barnard, 1962
 Diluculum Barnard, 1962
@@ -830,7 +846,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>William Swainson, A treatise on Malacology; or, the natural classification of shells and shell fish, 1840, 419 p. (DOI 10.5962/BHL.TITLE.8027, lire en ligne)</t>
         </is>
